--- a/TSH_Hotspot_Dialogue.xlsx
+++ b/TSH_Hotspot_Dialogue.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3719" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="627">
   <si>
     <t>TSH Dialogue Spreadsheet</t>
   </si>
@@ -594,6 +594,147 @@
     <t>laboratory_door</t>
   </si>
   <si>
+    <t>Door to House</t>
+  </si>
+  <si>
+    <t>That's the door back to the house.</t>
+  </si>
+  <si>
+    <t>Back to the normal part of the house. Well, 'normal.'</t>
+  </si>
+  <si>
+    <t>door_interior</t>
+  </si>
+  <si>
+    <t>Back Lab Door</t>
+  </si>
+  <si>
+    <t>Heavy security door on this one. Must be something valuable back there.</t>
+  </si>
+  <si>
+    <t>door_backlab</t>
+  </si>
+  <si>
+    <t>Side Room Door</t>
+  </si>
+  <si>
+    <t>Another door. This one has a small window. Looks like a storage area back there.</t>
+  </si>
+  <si>
+    <t>It's locked. Must not be implemented yet.</t>
+  </si>
+  <si>
+    <t>door_sideroom</t>
+  </si>
+  <si>
+    <t>Teleporter Controls</t>
+  </si>
+  <si>
+    <t>Buttons, dials, a couple of levers. There's a label that says 'DEMATERIALIZATION SEQUENCE' which is both exciting and concerning.</t>
+  </si>
+  <si>
+    <t>Better not touch anything without knowing what I'm doing. The word 'dematerialization' demands respect.</t>
+  </si>
+  <si>
+    <t>teleporter_controls</t>
+  </si>
+  <si>
+    <t>Workbench</t>
+  </si>
+  <si>
+    <t>A long metal workbench covered in equipment and half-assembled gizmos. This is where the magic happens.</t>
+  </si>
+  <si>
+    <t>Tools, spare parts, a half-eaten sandwich. The essentials of scientific discovery.</t>
+  </si>
+  <si>
+    <t>workbench</t>
+  </si>
+  <si>
+    <t>Control Panel</t>
+  </si>
+  <si>
+    <t>A wall-mounted panel covered in switches, gauges, and indicator lights. Most of them are green. Green is good, right?</t>
+  </si>
+  <si>
+    <t>I'm not touching anything until someone tells me what these do. I've seen enough movies.</t>
+  </si>
+  <si>
+    <t>panel_controls</t>
+  </si>
+  <si>
+    <t>Portal Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whoa. That is... a LOT of science happening right there. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The air around it feels... charged. </t>
+  </si>
+  <si>
+    <t>device_portal</t>
+  </si>
+  <si>
+    <t>Interdimensional Relay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A display screen showing... wavelengths? Dimensions? Readings I can't begin to interpret. </t>
+  </si>
+  <si>
+    <t>The screen flickers through data faster than I can read. Whatever it's doing, it's doing it with confidence.</t>
+  </si>
+  <si>
+    <t>component_screen</t>
+  </si>
+  <si>
+    <t>Energy Resonator</t>
+  </si>
+  <si>
+    <t>A pulsing core of contained energy. I can feel it vibrating from here.</t>
+  </si>
+  <si>
+    <t>It's practically bursting with power. I think I'll admire it from a safe distance.</t>
+  </si>
+  <si>
+    <t>component_power</t>
+  </si>
+  <si>
+    <t>Computer Terminal</t>
+  </si>
+  <si>
+    <t>Multiple screens, all showing scrolling data. Green text on black backgrounds. Very retro, very serious. This is mission control.</t>
+  </si>
+  <si>
+    <t>I'd need to ask before poking around in here. This looks like the kind of system where pressing the wrong key could be... consequential.</t>
+  </si>
+  <si>
+    <t>computer_terminal</t>
+  </si>
+  <si>
+    <t>Lab Coat</t>
+  </si>
+  <si>
+    <t>A spare lab coat hanging on a hook. Crisp, white, official-looking. The uniform of People Who Learn Things.</t>
+  </si>
+  <si>
+    <t>I should probably earn the right to wear one of these first. Can't just waltz in and start cosplaying as a scientist.</t>
+  </si>
+  <si>
+    <t>item_labcoat</t>
+  </si>
+  <si>
+    <t>Tesla Coils</t>
+  </si>
+  <si>
+    <t>Tesla coils! Actual Tesla coils, just... casually existing. This place is amazing.</t>
+  </si>
+  <si>
+    <t>No thank you. I like my hair the way it is.</t>
+  </si>
+  <si>
+    <t>tesla_coils</t>
+  </si>
+  <si>
     <t>Scientist</t>
   </si>
   <si>
@@ -603,195 +744,6 @@
     <t>hector</t>
   </si>
   <si>
-    <t>Door to House</t>
-  </si>
-  <si>
-    <t>That's the door back to the house.</t>
-  </si>
-  <si>
-    <t>Back to the normal part of the house. Well, 'normal.'</t>
-  </si>
-  <si>
-    <t>door_interior</t>
-  </si>
-  <si>
-    <t>Back Lab Door</t>
-  </si>
-  <si>
-    <t>Heavy security door on this one. Must be something valuable back there.</t>
-  </si>
-  <si>
-    <t>door_backlab</t>
-  </si>
-  <si>
-    <t>Side Room Door</t>
-  </si>
-  <si>
-    <t>Another door. This one has a small window. Looks like a storage area back there.</t>
-  </si>
-  <si>
-    <t>It's locked. Must not be implemented yet.</t>
-  </si>
-  <si>
-    <t>door_sideroom</t>
-  </si>
-  <si>
-    <t>Teleporter</t>
-  </si>
-  <si>
-    <t>Very Star Trek. Very 'I hope this doesn't scramble my atoms.'</t>
-  </si>
-  <si>
-    <t>I probably shouldn't just hop on without asking. That seems like a good way to end up as two of me. Or half of me.</t>
-  </si>
-  <si>
-    <t>device_teleporter</t>
-  </si>
-  <si>
-    <t>Teleporter Controls</t>
-  </si>
-  <si>
-    <t>Buttons, dials, a couple of levers. There's a label that says 'DEMATERIALIZATION SEQUENCE' which is both exciting and concerning.</t>
-  </si>
-  <si>
-    <t>Better not touch anything without knowing what I'm doing. The word 'dematerialization' demands respect.</t>
-  </si>
-  <si>
-    <t>teleporter_controls</t>
-  </si>
-  <si>
-    <t>Workbench</t>
-  </si>
-  <si>
-    <t>A long metal workbench covered in equipment and half-assembled gizmos. This is where the magic happens.</t>
-  </si>
-  <si>
-    <t>Tools, spare parts, a half-eaten sandwich. The essentials of scientific discovery.</t>
-  </si>
-  <si>
-    <t>workbench</t>
-  </si>
-  <si>
-    <t>Beakers and Tubes</t>
-  </si>
-  <si>
-    <t>Glass beakers, test tubes, bubbling liquids in colors that don't occur in nature. Some of them are glowing. That's probably fine.</t>
-  </si>
-  <si>
-    <t>It shudders when I tap it.</t>
-  </si>
-  <si>
-    <t>beakers</t>
-  </si>
-  <si>
-    <t>Control Panel</t>
-  </si>
-  <si>
-    <t>A wall-mounted panel covered in switches, gauges, and indicator lights. Most of them are green. Green is good, right?</t>
-  </si>
-  <si>
-    <t>I'm not touching anything until someone tells me what these do. I've seen enough movies.</t>
-  </si>
-  <si>
-    <t>panel_controls</t>
-  </si>
-  <si>
-    <t>Portal Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whoa. That is... a LOT of science happening right there. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The air around it feels... charged. </t>
-  </si>
-  <si>
-    <t>device_portal</t>
-  </si>
-  <si>
-    <t>Interdimensional Relay</t>
-  </si>
-  <si>
-    <t>A display screen showing... wavelengths? Dimensions? Readings I can't begin to interpret. The label says 'INTERDIMENSIONAL RELAY SERVICE.' Fancy TV, got it.</t>
-  </si>
-  <si>
-    <t>The screen flickers through data faster than I can read. Whatever it's doing, it's doing it with confidence.</t>
-  </si>
-  <si>
-    <t>component_screen</t>
-  </si>
-  <si>
-    <t>Energy Resonator</t>
-  </si>
-  <si>
-    <t>A pulsing core of contained energy. I can feel it vibrating from here. 'NUCLEAR ENERGY RESONATOR' says the label. That's not ominous at all.</t>
-  </si>
-  <si>
-    <t>It's practically thrumming with power. I think I'll admire it from a safe distance.</t>
-  </si>
-  <si>
-    <t>component_power</t>
-  </si>
-  <si>
-    <t>Stabilizer Cortex</t>
-  </si>
-  <si>
-    <t>Looks like an extremely elaborate and over-engineerd CPU. The label says 'STABILIZER CORTEX'.</t>
-  </si>
-  <si>
-    <t>That's the brain of this device. I'm not touching the brain. That's a rule I'm making right now. No touching brains.</t>
-  </si>
-  <si>
-    <t>component_brain</t>
-  </si>
-  <si>
-    <t>Computer Terminal</t>
-  </si>
-  <si>
-    <t>Multiple screens, all showing scrolling data. Green text on black backgrounds. Very retro, very serious. This is mission control.</t>
-  </si>
-  <si>
-    <t>I'd need to ask before poking around in here. This looks like the kind of system where pressing the wrong key could be... consequential.</t>
-  </si>
-  <si>
-    <t>computer_terminal</t>
-  </si>
-  <si>
-    <t>Lab Coat</t>
-  </si>
-  <si>
-    <t>A spare lab coat hanging on a hook. Crisp, white, official-looking. The uniform of People Who Learn Things.</t>
-  </si>
-  <si>
-    <t>I should probably earn the right to wear one of these first. Can't just waltz in and start cosplaying as a scientist.</t>
-  </si>
-  <si>
-    <t>item_labcoat</t>
-  </si>
-  <si>
-    <t>Tesla Coils</t>
-  </si>
-  <si>
-    <t>Tesla coils! Actual Tesla coils, just... casually existing. This place is amazing.</t>
-  </si>
-  <si>
-    <t>No thank you. I like my hair the way it is.</t>
-  </si>
-  <si>
-    <t>tesla_coils</t>
-  </si>
-  <si>
-    <t>Wall Diagrams</t>
-  </si>
-  <si>
-    <t>Blueprints, schematics, hand-drawn diagrams. Some of it looks like physics, some of it looks like philosophy, and some of it looks like the ramblings of a wonderful madman.</t>
-  </si>
-  <si>
-    <t>Portal mechanics, dimensional theory... I understand about every fifth word, but I want to understand all of them.</t>
-  </si>
-  <si>
-    <t>wall_diagrams</t>
-  </si>
-  <si>
     <t>Knife Block</t>
   </si>
   <si>
@@ -825,6 +777,18 @@
     <t>There are broken parts sticking out everywhere.</t>
   </si>
   <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a big spring popping out of the panel. </t>
+  </si>
+  <si>
+    <t>I think I can pull it out.</t>
+  </si>
+  <si>
+    <t>spring_panel</t>
+  </si>
+  <si>
     <t>Broken Temporal Synchronizer</t>
   </si>
   <si>
@@ -840,6 +804,66 @@
     <t>component_clock_broken</t>
   </si>
   <si>
+    <t>Fixed Temporal Synchronizer</t>
+  </si>
+  <si>
+    <t>flag:clock.fixed</t>
+  </si>
+  <si>
+    <t>The clock is installed and ticking perfectly. The Temporal Synchronizer is operational again!</t>
+  </si>
+  <si>
+    <t>It's working perfectly now. Best not to mess with it.</t>
+  </si>
+  <si>
+    <t>component_clock_fixed</t>
+  </si>
+  <si>
+    <t>Dark Woods</t>
+  </si>
+  <si>
+    <t>Dense, dark woods surround this cozy clearing. Pretty sure I'd get lost immediately.</t>
+  </si>
+  <si>
+    <t>No thanks. I like it here where there's light and burgers.</t>
+  </si>
+  <si>
+    <t>Only we can prevent forest fires!</t>
+  </si>
+  <si>
+    <t>woods_background</t>
+  </si>
+  <si>
+    <t>Earl's Airstream</t>
+  </si>
+  <si>
+    <t>This thing is a classic!</t>
+  </si>
+  <si>
+    <t>I'd love to hit the road in this.</t>
+  </si>
+  <si>
+    <t>That's a bit extreme.</t>
+  </si>
+  <si>
+    <t>I'm no arsonist.</t>
+  </si>
+  <si>
+    <t>airstream_home</t>
+  </si>
+  <si>
+    <t>Large Tree</t>
+  </si>
+  <si>
+    <t>Another big tree. This place is framed beautifully.</t>
+  </si>
+  <si>
+    <t>Still a no on the tree climbing.</t>
+  </si>
+  <si>
+    <t>tree_right</t>
+  </si>
+  <si>
     <t>Airstream Door</t>
   </si>
   <si>
@@ -852,372 +876,237 @@
     <t>airstream_door</t>
   </si>
   <si>
-    <t>Airstream Window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks cozy in there. </t>
-  </si>
-  <si>
-    <t>If I want to go inside, i'll just use the door.</t>
-  </si>
-  <si>
-    <t>airstream_window</t>
-  </si>
-  <si>
-    <t>Dark Woods</t>
-  </si>
-  <si>
-    <t>Dense, dark woods surround this cozy clearing. Pretty sure I'd get lost immediately.</t>
-  </si>
-  <si>
-    <t>No thanks. I like it here where there's light and burgers.</t>
-  </si>
-  <si>
-    <t>Only we can prevent forest fires!</t>
-  </si>
-  <si>
-    <t>woods_background</t>
-  </si>
-  <si>
-    <t>Earl's Airstream</t>
-  </si>
-  <si>
-    <t>This thing is a classic!</t>
-  </si>
-  <si>
-    <t>I'd love to hit the road in this.</t>
-  </si>
-  <si>
-    <t>That's a bit extreme.</t>
-  </si>
-  <si>
-    <t>I'm no arsonist.</t>
-  </si>
-  <si>
-    <t>airstream_home</t>
-  </si>
-  <si>
-    <t>Large Tree</t>
-  </si>
-  <si>
-    <t>A big old oak tree. Probably provides nice shade during the day.</t>
-  </si>
-  <si>
-    <t>Tree climbing was never my strong suit.</t>
-  </si>
-  <si>
-    <t>tree_left</t>
-  </si>
-  <si>
-    <t>Another big tree. This place is framed beautifully.</t>
-  </si>
-  <si>
-    <t>Still a no on the tree climbing.</t>
-  </si>
-  <si>
-    <t>tree_right</t>
+    <t>Pink Flamingo</t>
+  </si>
+  <si>
+    <t>A bright pink plastic lawn flamingo. Tacky, beloved, and absolutely perfect.</t>
+  </si>
+  <si>
+    <t>Hey there, flamingo!</t>
+  </si>
+  <si>
+    <t>Hey flamingo, did you publish this ad?</t>
+  </si>
+  <si>
+    <t>flamingo_pink</t>
+  </si>
+  <si>
+    <t>Old Radio</t>
+  </si>
+  <si>
+    <t>It's a old tube radio with great reception.</t>
+  </si>
+  <si>
+    <t>I'll change the station.</t>
+  </si>
+  <si>
+    <t>radio_table</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
+    <t>A large, friendly-looking sasquatch in a chef's hat. He's smells faintly of charcoal and pine.</t>
+  </si>
+  <si>
+    <t>I don't think he's the one who's looking for help. He seems to have it all figured out.</t>
+  </si>
+  <si>
+    <t>{"dialogue":"earl: My grill claws! | earl: I never thought I'd see them again! | earl: Thanks bud.","consumeItem":true,"setFlag":"clock.returned_borrowed_item"}</t>
+  </si>
+  <si>
+    <t>earl_npc</t>
+  </si>
+  <si>
+    <t>Earl's Ladder</t>
+  </si>
+  <si>
+    <t>flag:clock.returned_borrowed_item</t>
+  </si>
+  <si>
+    <t>A sturdy aluminum ladder. That would be really useful for reaching high places...</t>
+  </si>
+  <si>
+    <t>Thanks again for the ladder! | earl: No problemo!</t>
+  </si>
+  <si>
+    <t>ladder_earl_unlocked</t>
+  </si>
+  <si>
+    <t>earl: Hang on there, neighbor! | earl: I can't let old stretch out of my sight. | I should really ask permission before stea- er, borrowing the ladder.</t>
+  </si>
+  <si>
+    <t>ladder_earl_locked</t>
+  </si>
+  <si>
+    <t>Covered Equipment</t>
+  </si>
+  <si>
+    <t>Something large under a dusty tarp. Could be anything from an old generator to a very committed ghost.</t>
+  </si>
+  <si>
+    <t>Looks like old lab equipment. Definitely not a ghost. Probably.</t>
+  </si>
+  <si>
+    <t>equipment_tarp</t>
+  </si>
+  <si>
+    <t>Metal Lockers</t>
+  </si>
+  <si>
+    <t>Two tall industrial lockers side by side. Big enough to hold... well, pretty much anything. There's a crack of light showing through one of the door seals.</t>
+  </si>
+  <si>
+    <t>Both locked tight. Wonder what's inside?</t>
+  </si>
+  <si>
+    <t>locker_hector</t>
+  </si>
+  <si>
+    <t>Stairs Up</t>
+  </si>
+  <si>
+    <t>A doorway in the back wall. I can see stairs leading up through it. Looks like they go to the second floor.</t>
+  </si>
+  <si>
+    <t>stairs_bedroom</t>
+  </si>
+  <si>
+    <t>Storage Shelves</t>
+  </si>
+  <si>
+    <t>Metal shelving loaded with lab supplies. Beakers, chemicals in unmarked bottles, cables, spare parts. The organized chaos of a working lab.</t>
+  </si>
+  <si>
+    <t>Lots of interesting stuff, but nothing I need right now. Just supplies.</t>
+  </si>
+  <si>
+    <t>shelves_lab</t>
+  </si>
+  <si>
+    <t>Stacked Boxes</t>
+  </si>
+  <si>
+    <t>Cardboard boxes stacked haphazardly. Some have labels: 'FRAGILE,' 'TESLA COILS,' 'DO NOT OPEN UNTIL CRISIS.' That last one's ominous.</t>
+  </si>
+  <si>
+    <t>The boxes are taped shut and stacked pretty precariously. Better not disturb them.</t>
+  </si>
+  <si>
+    <t>boxes_storage</t>
+  </si>
+  <si>
+    <t>Filing Cabinet</t>
+  </si>
+  <si>
+    <t>A dented metal filing cabinet. The kind that survives nuclear war and office relocations.</t>
+  </si>
+  <si>
+    <t>The drawers are jammed shut. Probably haven't been opened in years.</t>
+  </si>
+  <si>
+    <t>cabinet_metal</t>
+  </si>
+  <si>
+    <t>Fire Extinguisher</t>
+  </si>
+  <si>
+    <t>A red fire extinguisher mounted on the wall. The inspection tag is... wow, that date can't be right.</t>
+  </si>
+  <si>
+    <t>It's bolted to the wall. Plus I don't have a fire. Yet.</t>
+  </si>
+  <si>
+    <t>fire_extinguisher</t>
+  </si>
+  <si>
+    <t>A window into the house. Warm light spills out. I can see the living room from here.</t>
+  </si>
+  <si>
+    <t>Huh, it's messier than I thought. And is that... a floating head? Oh right, that's Hector.</t>
+  </si>
+  <si>
+    <t>window_house</t>
+  </si>
+  <si>
+    <t>Basement Bulkhead</t>
+  </si>
+  <si>
+    <t>Large metal bulkhead doors leading down to the basement. They look heavy but not locked.</t>
+  </si>
+  <si>
+    <t>bulkhead_basement</t>
+  </si>
+  <si>
+    <t>Clothesline</t>
+  </si>
+  <si>
+    <t>An old clothesline. There's a lab coat hanging on it, flapping in the breeze. Been here a while.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This coat is soaking wet. </t>
+  </si>
+  <si>
+    <t>clothesline</t>
+  </si>
+  <si>
+    <t>Overgrown Garden</t>
+  </si>
+  <si>
+    <t>What was once a garden is now a jungle. Stakes have labels like 'Specimen 7-B' and 'Do Not Consume'. Scientist gardening.</t>
+  </si>
+  <si>
+    <t>Plants everywhere. Some of them are glowing? Others look like they're... breathing? I'm going to pretend I didn't see that.</t>
+  </si>
+  <si>
+    <t>garden_wild</t>
+  </si>
+  <si>
+    <t>Doghouse</t>
+  </si>
+  <si>
+    <t>Where's Fluffy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty. Just some old dog toys and... is that a tiny lab coat? </t>
+  </si>
+  <si>
+    <t>doghouse</t>
+  </si>
+  <si>
+    <t>Telescope</t>
+  </si>
+  <si>
+    <t>An old brass telescope on a tripod. Pointed at the sky.</t>
+  </si>
+  <si>
+    <t>Wow, that's a lot of stars! Wait, is that one moving? And... blinking? Probably just a plane. Definitely just a plane.</t>
+  </si>
+  <si>
+    <t>telescope</t>
+  </si>
+  <si>
+    <t>Wooden Fence</t>
+  </si>
+  <si>
+    <t>A tall wooden fence separating Hector's yard from the neighbor's. Colorful string lights hang above it. Smells like... burgers?</t>
+  </si>
+  <si>
+    <t>fence_earl</t>
   </si>
   <si>
     <t>String Lights</t>
   </si>
   <si>
-    <t>These lights really create a vibe!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm not going to steal a man's vibe. </t>
+    <t>Festive string lights draped along the fence. Red, green, blue, yellow... someone's having a party over there.</t>
+  </si>
+  <si>
+    <t>So pretty! Whoever lives over there really knows how to set a mood.</t>
   </si>
   <si>
     <t>string_lights</t>
   </si>
   <si>
-    <t>Pink Flamingo</t>
-  </si>
-  <si>
-    <t>A bright pink plastic lawn flamingo. Tacky, beloved, and absolutely perfect.</t>
-  </si>
-  <si>
-    <t>Hey there, flamingo!</t>
-  </si>
-  <si>
-    <t>Hey flamingo, did you publish this ad?</t>
-  </si>
-  <si>
-    <t>flamingo_pink</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>It's a green cooler full of drinks.</t>
-  </si>
-  <si>
-    <t>Hey, a root beer!</t>
-  </si>
-  <si>
-    <t>cooler_green</t>
-  </si>
-  <si>
-    <t>Old Radio</t>
-  </si>
-  <si>
-    <t>It's a old tube radio with great reception.</t>
-  </si>
-  <si>
-    <t>I'll change the station.</t>
-  </si>
-  <si>
-    <t>radio_table</t>
-  </si>
-  <si>
-    <t>Charcoal Grill</t>
-  </si>
-  <si>
-    <t>That smells AMAZING. Burgers are definitely happening.</t>
-  </si>
-  <si>
-    <t>YEEEOUCH. Why'd I do that?</t>
-  </si>
-  <si>
-    <t>It's already lit and cooking nicely.</t>
-  </si>
-  <si>
-    <t>It's already lit and smelling good.</t>
-  </si>
-  <si>
-    <t>grill_charcoal</t>
-  </si>
-  <si>
-    <t>Earl</t>
-  </si>
-  <si>
-    <t>A large, friendly-looking sasquatch in a chef's hat. He's smells faintly of charcoal and pine.</t>
-  </si>
-  <si>
-    <t>I don't think he's the one who's looking for help. He seems to have it all figured out.</t>
-  </si>
-  <si>
-    <t>{"dialogue":"earl: My grill claws! | earl: I never thought I'd see them again! | earl: Thanks bud.","consumeItem":true,"setFlag":"clock.returned_borrowed_item"}</t>
-  </si>
-  <si>
-    <t>earl_npc</t>
-  </si>
-  <si>
-    <t>Earl's Ladder</t>
-  </si>
-  <si>
-    <t>flag:clock.returned_borrowed_item</t>
-  </si>
-  <si>
-    <t>A sturdy aluminum ladder. That would be really useful for reaching high places...</t>
-  </si>
-  <si>
-    <t>Thanks again for the ladder! | earl: No problemo!</t>
-  </si>
-  <si>
-    <t>ladder_earl_unlocked</t>
-  </si>
-  <si>
-    <t>earl: Hang on there, neighbor! | earl: I can't let old stretch out of my sight. | I should really ask permission before stea- er, borrowing the ladder.</t>
-  </si>
-  <si>
-    <t>ladder_earl_locked</t>
-  </si>
-  <si>
-    <t>Covered Equipment</t>
-  </si>
-  <si>
-    <t>Something large under a dusty tarp. Could be anything from an old generator to a very committed ghost.</t>
-  </si>
-  <si>
-    <t>I lift the edge. Looks like old lab equipment. Definitely not a ghost. Probably.</t>
-  </si>
-  <si>
-    <t>equipment_tarp</t>
-  </si>
-  <si>
-    <t>Metal Lockers</t>
-  </si>
-  <si>
-    <t>Two tall industrial lockers side by side. Big enough to hold... well, pretty much anything. There's a crack of light showing through one of the door seals.</t>
-  </si>
-  <si>
-    <t>Both locked tight. Wonder what's inside?</t>
-  </si>
-  <si>
-    <t>locker_hector</t>
-  </si>
-  <si>
-    <t>Stairs Up</t>
-  </si>
-  <si>
-    <t>A doorway in the back wall. I can see stairs leading up through it. Looks like they go to the second floor.</t>
-  </si>
-  <si>
-    <t>stairs_bedroom</t>
-  </si>
-  <si>
-    <t>Storage Shelves</t>
-  </si>
-  <si>
-    <t>Metal shelving loaded with lab supplies. Beakers, chemicals in unmarked bottles, cables, spare parts. The organized chaos of a working lab.</t>
-  </si>
-  <si>
-    <t>Lots of interesting stuff, but nothing I need right now. Just supplies.</t>
-  </si>
-  <si>
-    <t>shelves_lab</t>
-  </si>
-  <si>
-    <t>Stacked Boxes</t>
-  </si>
-  <si>
-    <t>Cardboard boxes stacked haphazardly. Some have labels: 'FRAGILE,' 'TESLA COILS,' 'DO NOT OPEN UNTIL CRISIS.' That last one's ominous.</t>
-  </si>
-  <si>
-    <t>The boxes are taped shut and stacked pretty precariously. Better not disturb them.</t>
-  </si>
-  <si>
-    <t>boxes_storage</t>
-  </si>
-  <si>
-    <t>Filing Cabinet</t>
-  </si>
-  <si>
-    <t>A dented metal filing cabinet. The kind that survives nuclear war and office relocations.</t>
-  </si>
-  <si>
-    <t>The drawers are jammed shut. Probably haven't been opened in years.</t>
-  </si>
-  <si>
-    <t>cabinet_metal</t>
-  </si>
-  <si>
-    <t>Fire Extinguisher</t>
-  </si>
-  <si>
-    <t>A red fire extinguisher mounted on the wall. The inspection tag is... wow, that date can't be right.</t>
-  </si>
-  <si>
-    <t>It's bolted to the wall. Plus I don't have a fire. Yet.</t>
-  </si>
-  <si>
-    <t>fire_extinguisher</t>
-  </si>
-  <si>
-    <t>A window into the house. Warm light spills out. I can see the living room from here.</t>
-  </si>
-  <si>
-    <t>Huh, it's messier than I thought. And is that... a floating head? Oh right, that's Hector.</t>
-  </si>
-  <si>
-    <t>window_house</t>
-  </si>
-  <si>
-    <t>Back Door</t>
-  </si>
-  <si>
-    <t>A sturdy wooden door leading back into the house. Two steps lead up to it, and a warm light glows above the entrance.</t>
-  </si>
-  <si>
-    <t>back_door</t>
-  </si>
-  <si>
-    <t>Basement Bulkhead</t>
-  </si>
-  <si>
-    <t>Large metal bulkhead doors leading down to the basement. They look heavy but not locked.</t>
-  </si>
-  <si>
-    <t>bulkhead_basement</t>
-  </si>
-  <si>
-    <t>Clothesline</t>
-  </si>
-  <si>
-    <t>An old clothesline. There's a lab coat hanging on it, flapping in the breeze. Been here a while.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This coat is soaking wet. </t>
-  </si>
-  <si>
-    <t>clothesline</t>
-  </si>
-  <si>
-    <t>Overgrown Garden</t>
-  </si>
-  <si>
-    <t>What was once a garden is now a jungle. Stakes have labels like 'Specimen 7-B' and 'Do Not Consume'. Scientist gardening.</t>
-  </si>
-  <si>
-    <t>Plants everywhere. Some of them are glowing? Others look like they're... breathing? I'm going to pretend I didn't see that.</t>
-  </si>
-  <si>
-    <t>garden_wild</t>
-  </si>
-  <si>
-    <t>Doghouse</t>
-  </si>
-  <si>
-    <t>Where's Fluffy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empty. Just some old dog toys and... is that a tiny lab coat? </t>
-  </si>
-  <si>
-    <t>doghouse</t>
-  </si>
-  <si>
-    <t>Garden Gnome</t>
-  </si>
-  <si>
-    <t>Classic gnome. Guarding nothing. Living the dream.</t>
-  </si>
-  <si>
-    <t>I'm not stealing a man's gnome. That's where I draw the line.</t>
-  </si>
-  <si>
-    <t>gnome</t>
-  </si>
-  <si>
-    <t>Telescope</t>
-  </si>
-  <si>
-    <t>An old brass telescope on a tripod. Pointed at the sky.</t>
-  </si>
-  <si>
-    <t>Wow, that's a lot of stars! Wait, is that one moving? And... blinking? Probably just a plane. Definitely just a plane.</t>
-  </si>
-  <si>
-    <t>telescope</t>
-  </si>
-  <si>
-    <t>Garbage Cans</t>
-  </si>
-  <si>
-    <t>Standard garbage cans. One's overflowing with failed experiment notes.</t>
-  </si>
-  <si>
-    <t>Let's see... old coffee filters and some kind of glowing residue.</t>
-  </si>
-  <si>
-    <t>trash_cans</t>
-  </si>
-  <si>
-    <t>Wooden Fence</t>
-  </si>
-  <si>
-    <t>A tall wooden fence separating Hector's yard from the neighbor's. Colorful string lights hang above it. Smells like... burgers?</t>
-  </si>
-  <si>
-    <t>fence_earl</t>
-  </si>
-  <si>
-    <t>Festive string lights draped along the fence. Red, green, blue, yellow... someone's having a party over there.</t>
-  </si>
-  <si>
-    <t>So pretty! Whoever lives over there really knows how to set a mood.</t>
-  </si>
-  <si>
     <t>Garden Shed</t>
   </si>
   <si>
@@ -1230,777 +1119,732 @@
     <t>shed_entrance</t>
   </si>
   <si>
+    <t>Fence Gate</t>
+  </si>
+  <si>
+    <t>A wooden gate in the fence leading to the neighbor's yard. I can hear music and smell BBQ from the other side.</t>
+  </si>
+  <si>
+    <t>Hello? Is anyone over there?</t>
+  </si>
+  <si>
+    <t>fence_gate_locked</t>
+  </si>
+  <si>
+    <t>flag:clock.earl_invited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The gate to the neighbor's yard. He said I'm welcome any time. </t>
+  </si>
+  <si>
+    <t>fence_gate_unlocked</t>
+  </si>
+  <si>
+    <t>Wall Clock</t>
+  </si>
+  <si>
+    <t>An old clock mounted WAY up on the exterior wall. Why would anyone put a clock there? It's like 15 feet up!</t>
+  </si>
+  <si>
+    <t>I can't reach that. I'd need... I don't know, a ladder? Spring-loaded shoes? A really tall friend?</t>
+  </si>
+  <si>
+    <t>These would be perfect if they weren't broken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These would be perfect if they weren't still broken. </t>
+  </si>
+  <si>
+    <t>{"dialogue":"The ladder helps, but it's not tall enough to reach the clock.","consumeItem":true,"setFlag":"clock.ladder_deployed"}</t>
+  </si>
+  <si>
+    <t>The shoes give me some bounce, but I still can't reach it from down here.</t>
+  </si>
+  <si>
+    <t>I'm not sure throwing a spring at the clock is going to be enough.</t>
+  </si>
+  <si>
+    <t>Definitely not long enough to reach the clock. Plus the clock seems firmly attached to the wall.</t>
+  </si>
+  <si>
+    <t>clock_wall</t>
+  </si>
+  <si>
+    <t>flag:clock.ladder_deployed</t>
+  </si>
+  <si>
+    <t>The ladder I placed here. Still not tall enough to reach the clock.</t>
+  </si>
+  <si>
+    <t>I should leave it here for now. I think I'm onto something.</t>
+  </si>
+  <si>
+    <t>{"dialogue":"I climb the ladder, put on the moon shoes, and JUMP! *CRASH* I grab the clock as I bounce off the wall. Success!","consumeItem":true,"giveItem":"clock","setFlag":"clock.obtained"}</t>
+  </si>
+  <si>
+    <t>Not a bad idea... IF the shoes weren't still broken.</t>
+  </si>
+  <si>
+    <t>I don't think the spring alone is enough to help here.</t>
+  </si>
+  <si>
+    <t>ladder_deployed</t>
+  </si>
+  <si>
+    <t>Nuclear Generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A large nuclear generator humming with ominous power. The control panel has switches for 'Lab 1' and 'Lab 2'. </t>
+  </si>
+  <si>
+    <t>Lab 1 seems inactive - the fuse looks blown. Lab 2 is still running though.</t>
+  </si>
+  <si>
+    <t>generator_nuclear</t>
+  </si>
+  <si>
+    <t>Stairs to Backyard</t>
+  </si>
+  <si>
+    <t>Wooden stairs leading up to the backyard.</t>
+  </si>
+  <si>
+    <t>bulkhead_stairs</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>A gentle giant with distinctive neck bolts.</t>
+  </si>
+  <si>
+    <t>frank_npc</t>
+  </si>
+  <si>
+    <t>Brain in Jar</t>
+  </si>
+  <si>
+    <t>The jar is labeled 'ABNORMAL'.</t>
+  </si>
+  <si>
+    <t>I probably shouldn't grab someone's brain without asking.</t>
+  </si>
+  <si>
+    <t>brain_jar</t>
+  </si>
+  <si>
+    <t>Specimen Jars</t>
+  </si>
+  <si>
+    <t>Various jars with mysterious contents.</t>
+  </si>
+  <si>
+    <t>Better not. These look like the kind of things that end badly when touched.</t>
+  </si>
+  <si>
+    <t>jars_various</t>
+  </si>
+  <si>
+    <t>Moon shoes! These were banned in six states!</t>
+  </si>
+  <si>
+    <t>I should pick them up first.</t>
+  </si>
+  <si>
+    <t>Cobwebs</t>
+  </si>
+  <si>
+    <t>How long has it been since anyone cleaned down here?</t>
+  </si>
+  <si>
+    <t>If there's a radioactive spider in there, I don't want to know.</t>
+  </si>
+  <si>
+    <t>cobwebs</t>
+  </si>
+  <si>
+    <t>Old Workbench</t>
+  </si>
+  <si>
+    <t>A dusty workbench covered in tools and parts.</t>
+  </si>
+  <si>
+    <t>Tools, bolts, screws, random metal pieces... nothing immediately useful.</t>
+  </si>
+  <si>
+    <t>workbench_old</t>
+  </si>
+  <si>
+    <t>Task Lamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An old task lamp with a dented metal shade. </t>
+  </si>
+  <si>
+    <t>I'd rather leave it on. The basement is dark enough as it is.</t>
+  </si>
+  <si>
+    <t>task_lamp</t>
+  </si>
+  <si>
+    <t>Bare Bulb</t>
+  </si>
+  <si>
+    <t>A single bare lightbulb hanging from the ceiling.</t>
+  </si>
+  <si>
+    <t>lightbulb_bare</t>
+  </si>
+  <si>
+    <t>Stacked Crates</t>
+  </si>
+  <si>
+    <t>Wooden crates stacked high against the wall. They look old and forgotten.</t>
+  </si>
+  <si>
+    <t>Empty. Just dust and disappointment.</t>
+  </si>
+  <si>
+    <t>crates_stacked</t>
+  </si>
+  <si>
+    <t>Frank's Room</t>
+  </si>
+  <si>
+    <t>A bedroom door with a crayon drawing taped to it. 'FRANKS ROOM' is written in wobbly letters. There's a crude picture of... a flower? Or maybe a sun with legs.</t>
+  </si>
+  <si>
+    <t>door_frank</t>
+  </si>
+  <si>
+    <t>Bedroom Door</t>
+  </si>
+  <si>
+    <t>Something's off about this door. There are scorch marks around the frame, and I can see a faint glow from underneath. Sounds like people arguing on the other side.</t>
+  </si>
+  <si>
+    <t>door_alien</t>
+  </si>
+  <si>
+    <t>Stairwell</t>
+  </si>
+  <si>
+    <t>Stairs leading down to the foyer. The banister is polished smooth from decades of use.</t>
+  </si>
+  <si>
+    <t>stairs_down</t>
+  </si>
+  <si>
+    <t>Bathroom</t>
+  </si>
+  <si>
+    <t>A bathroom door. Plain, unassuming.</t>
+  </si>
+  <si>
+    <t>It's locked. I'm not even sure why this door exists.</t>
+  </si>
+  <si>
+    <t>door_bathroom</t>
+  </si>
+  <si>
+    <t>Hector's Room</t>
+  </si>
+  <si>
+    <t>Hector's bedroom door. Looks like a pretty standard door, but knowing this house, who knows what's behind it.</t>
+  </si>
+  <si>
+    <t>door_hector</t>
+  </si>
+  <si>
+    <t>Attic Pull-String</t>
+  </si>
+  <si>
+    <t>A pull-string dangling from a ceiling hatch. I can hear faint sounds from above... scratching? Footsteps? Static? Something's up there.</t>
+  </si>
+  <si>
+    <t>I can't reach it. Must not be implemented yet.</t>
+  </si>
+  <si>
+    <t>pullstring_attic</t>
+  </si>
+  <si>
+    <t>Portrait</t>
+  </si>
+  <si>
+    <t>A woman in Victorian dress. She's holding what appears to be a beaker. Her hair is... suspiciously wild. Science clearly runs in this family.</t>
+  </si>
+  <si>
+    <t>'Henrietta Manzana, 1870-???'. The death date is scratched out. That's... concerning.</t>
+  </si>
+  <si>
+    <t>portrait_1</t>
+  </si>
+  <si>
+    <t>Wait, is he wearing GOGGLES? In the 1800s? Those look exactly like Hector's. This family has a very specific aesthetic.</t>
+  </si>
+  <si>
+    <t>'Herbert Manzana'. No dates. His eyes seem to follow me. I'm choosing to believe that's just good painting technique.</t>
+  </si>
+  <si>
+    <t>portrait_2</t>
+  </si>
+  <si>
+    <t>Unusual Portrait</t>
+  </si>
+  <si>
+    <t>This one's different. The subject has very large eyes, unusually smooth skin, and... are those ANTENNAE painted over with hair? Someone tried to cover them up with brown paint.</t>
+  </si>
+  <si>
+    <t>The nameplate just says 'Cousin'. There's no date. The more I look at this portrait, the less human it appears. I'm going to stop looking at it now.</t>
+  </si>
+  <si>
+    <t>portrait_3</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>A solid wooden door. Leads out to the hallway.</t>
+  </si>
+  <si>
+    <t>door_hallway</t>
+  </si>
+  <si>
+    <t>Stairs Down</t>
+  </si>
+  <si>
+    <t>The stairs leading back down to the side room.</t>
+  </si>
+  <si>
+    <t>exit_stairs</t>
+  </si>
+  <si>
+    <t>Artwork</t>
+  </si>
+  <si>
+    <t>A large painting over the bed. Abstract, lots of blues and greens. Peaceful. Like looking into calm water.</t>
+  </si>
+  <si>
+    <t>It's mounted pretty solidly to the wall. Also, it's not mine.</t>
+  </si>
+  <si>
+    <t>artwork_bed</t>
+  </si>
+  <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>An open closet, mostly empty. A few shirts, nothing fancy. But there's a pair of Hector's goggles hanging on a hook inside. The iconic ones.</t>
+  </si>
+  <si>
+    <t>I should probably leave Hector's personal stuff alone. For now.</t>
+  </si>
+  <si>
+    <t>closet_hector</t>
+  </si>
+  <si>
+    <t>Bathrobe</t>
+  </si>
+  <si>
+    <t>A well-worn bathrobe on a wall hook. The terrycloth kind. This thing has seen some long nights.</t>
+  </si>
+  <si>
+    <t>It's not my bathrobe. That would be weird.</t>
+  </si>
+  <si>
+    <t>robe_hook</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>A solid, comfortable bed with warm wool blankets. Rumpled on one side like someone got up in a hurry. The pillow still has a head-shaped dent.</t>
+  </si>
+  <si>
+    <t>Tempting, but I'm on the clock. Also it's somebody else's bed.</t>
+  </si>
+  <si>
+    <t>bed_hector</t>
+  </si>
+  <si>
+    <t>Nightstand</t>
+  </si>
+  <si>
+    <t>A small nightstand with a warm lamp. There's a book of poetry, a pair of reading glasses, and a framed photo. The essentials.</t>
+  </si>
+  <si>
+    <t>A bookmark about two-thirds through the poetry book. Reading glasses sitting on top, lenses smudged. This is a man's bedtime routine.</t>
+  </si>
+  <si>
+    <t>nightstand_left</t>
+  </si>
+  <si>
+    <t>Framed Photo</t>
+  </si>
+  <si>
+    <t>Hector, a woman, and a big goofy dog. Everyone's smiling. Wherever this was taken, it looks like a really good day.</t>
+  </si>
+  <si>
+    <t>I shouldn't... but the frame's warm from the lamp. Someone looks at this every night.</t>
+  </si>
+  <si>
+    <t>photo_frame</t>
+  </si>
+  <si>
+    <t>Another lamp, and a cup of tea. Stone cold. He got pulled away mid-evening and never came back.</t>
+  </si>
+  <si>
+    <t>The tea has a skin on it. That's been sitting here a while.</t>
+  </si>
+  <si>
+    <t>nightstand_right</t>
+  </si>
+  <si>
+    <t>Dog Bed</t>
+  </si>
+  <si>
+    <t>A dog bed in the corner. Empty. There's still fur on it. Same dog from the photo on the nightstand?</t>
+  </si>
+  <si>
+    <t>Just a well-worn cushion. No dog. No note. Just... gone.</t>
+  </si>
+  <si>
+    <t>dog_bed_empty</t>
+  </si>
+  <si>
+    <t>The door back to the hallway. I can hear the old house settling through it.</t>
+  </si>
+  <si>
+    <t>Botanical Drawing</t>
+  </si>
+  <si>
+    <t>A framed botanical illustration. Hand-drawn, detailed. It's a tomato plant at various stages - seedling, flowering, fruiting. Someone spent a lot of time on this.</t>
+  </si>
+  <si>
+    <t>It's not mine to take. But it's really well done.</t>
+  </si>
+  <si>
+    <t>botanical_drawing</t>
+  </si>
+  <si>
+    <t>Lumpy Bed</t>
+  </si>
+  <si>
+    <t>This is a REALLY lumpy bed. I can see the springs practically bursting through.</t>
+  </si>
+  <si>
+    <t>I'm not tired enough to use someone else's bed yet.</t>
+  </si>
+  <si>
+    <t>{"dialogue":"","setFlag":"franks_room.bed_cut"}</t>
+  </si>
+  <si>
+    <t>bed_frank</t>
+  </si>
+  <si>
+    <t>flag:franks_room.bed_cut</t>
+  </si>
+  <si>
+    <t>A spring burst out of the mattress where I cut it.</t>
+  </si>
+  <si>
+    <t>Yoink.</t>
+  </si>
+  <si>
+    <t>spring_bed</t>
+  </si>
+  <si>
+    <t>Dresser</t>
+  </si>
+  <si>
+    <t>A solid wooden dresser. The top is covered with small potted plants - succulents mostly, all thriving. There's also a collection of seed packets organized by season.</t>
+  </si>
+  <si>
+    <t>Drawers are full of neatly folded clothes. Everything smells like fresh soil and lavender. There's a pair of worn gardening gloves tucked in the corner.</t>
+  </si>
+  <si>
+    <t>dresser_frank</t>
+  </si>
+  <si>
+    <t>Potted Plant</t>
+  </si>
+  <si>
+    <t>A rubber plant in a ceramic pot. Glossy leaves, healthy stem. There's a little hand-written tag stuck in the soil: 'Ruby - doing great!'</t>
+  </si>
+  <si>
+    <t>Ruby is doing great. She doesn't need my help.</t>
+  </si>
+  <si>
+    <t>plant_floor_right</t>
+  </si>
+  <si>
+    <t>Warning Sign</t>
+  </si>
+  <si>
+    <t>A wooden sign staked into the ground. Looks hand-painted.</t>
+  </si>
+  <si>
+    <t>"Beware of Toxic Sludge." Yikes. Noted!</t>
+  </si>
+  <si>
+    <t>sign_toxic</t>
+  </si>
+  <si>
+    <t>Another wooden sign. The paint's a little messier on this one.</t>
+  </si>
+  <si>
+    <t>"Trespassers Will Be Vaporized." I'm here for the job posting, so... I'm not trespassing. Right?</t>
+  </si>
+  <si>
+    <t>sign_vaporize</t>
+  </si>
+  <si>
+    <t>Yet another sign. This guy really likes signs.</t>
+  </si>
+  <si>
+    <t>"No Solicitors (This Means You)." Buddy, I'm not selling anything. Just... applying for a job.</t>
+  </si>
+  <si>
+    <t>sign_solicitors</t>
+  </si>
+  <si>
+    <t>Help Wanted Sign</t>
+  </si>
+  <si>
+    <t>Oh! This one looks newer. And less threatening.</t>
+  </si>
+  <si>
+    <t>"Help Wanted." That's the one! This is definitely the right place.</t>
+  </si>
+  <si>
+    <t>sign_help_wanted</t>
+  </si>
+  <si>
+    <t>Left Window</t>
+  </si>
+  <si>
+    <t>Warm light glowing from inside. I can see a coat rack, some furniture... very cozy!</t>
+  </si>
+  <si>
+    <t>Someone's definitely home. The place looks lived-in and loved.</t>
+  </si>
+  <si>
+    <t>Beautiful oak door with brass fixtures. Classic Victorian craftsmanship. The ad said to come right in...</t>
+  </si>
+  <si>
+    <t>door_front</t>
+  </si>
+  <si>
+    <t>More warm light! I can see a fireplace through this one. Score.</t>
+  </si>
+  <si>
+    <t>This place is everything the ad promised. Cozy scientist's home indeed!</t>
+  </si>
+  <si>
+    <t>Porch Light</t>
+  </si>
+  <si>
+    <t>A simple brass porch light. Keeping the darkness at bay, one bulb at a time.</t>
+  </si>
+  <si>
+    <t>It's doing its job. Better leave it alone.</t>
+  </si>
+  <si>
+    <t>porch_light</t>
+  </si>
+  <si>
+    <t>Hallway</t>
+  </si>
+  <si>
+    <t>The doorway back to the second floor hallway. No door - just an opening. Privacy doesn't seem to be a priority here.</t>
+  </si>
+  <si>
+    <t>doorway_exit</t>
+  </si>
+  <si>
+    <t>A medium-sized dresser. The drawers are stuffed with what looks like old newspapers, TV guides, and... is that tinfoil? Lots of tinfoil.</t>
+  </si>
+  <si>
+    <t>I pull open a drawer. More TV guides, organized by date going back YEARS. This is dedication.</t>
+  </si>
+  <si>
+    <t>dresser_alien</t>
+  </si>
+  <si>
+    <t>Lava Lamp</t>
+  </si>
+  <si>
+    <t>A lava lamp with pinkish-purple blobs slowly rising and falling. The glow is hypnotic. Very... groovy? Is that the word?</t>
+  </si>
+  <si>
+    <t>Warm to the touch. The blobs inside seem to move faster when I'm near it. Probably just a coincidence. Probably.</t>
+  </si>
+  <si>
+    <t>{"dialogue":"I hold the candle up to the lava lamp. They glow in harmony for a moment. Very zen.","giveItem":"spring"}</t>
+  </si>
+  <si>
+    <t>lamp_lava</t>
+  </si>
+  <si>
+    <t>Couch</t>
+  </si>
+  <si>
+    <t>A beat-up old couch, clearly the alien's throne. The cushions are molded to a very specific shape - one that's definitely not human. Surrounded by snack debris.</t>
+  </si>
+  <si>
+    <t>I'd have to get past Harry to sit there. And he's standing RIGHT behind it, staring at the TV. It's... unsettling.</t>
+  </si>
+  <si>
+    <t>couch_alien</t>
+  </si>
+  <si>
+    <t>Alien</t>
+  </si>
+  <si>
+    <t>A tall gray alien with an oversized head and huge, dark eyes. He's standing behind the couch, fixated on the TV. His tiny mouth is set in a neutral line - impossible to read his expression.</t>
+  </si>
+  <si>
+    <t>alien_harry</t>
+  </si>
+  <si>
+    <t>Coffee Table</t>
+  </si>
+  <si>
+    <t>A coffee table buried under clutter: a TV remote, half-eaten snacks, soda cans, and a well-worn TV Guide.</t>
+  </si>
+  <si>
+    <t>I search through the mess. Just snack wrappers and old magazines. Nothing useful.</t>
+  </si>
+  <si>
+    <t>table_coffee</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>A chunky CRT television, currently displaying 'Days of Our Parallel Dimensions' - apparently Harry's favorite soap. The screen casts a blue-white glow over the entire room. Hector needs this for the experiment...</t>
+  </si>
+  <si>
+    <t>I reach for the TV and Harry LEAPS off the couch. 'WHAT ARE YOU DOING?! Miranda is about to find out that Rafael is actually her clone from dimension 7!' He's not letting me anywhere near that TV while he's in here.</t>
+  </si>
+  <si>
+    <t>tv_soap</t>
+  </si>
+  <si>
+    <t>Video Tapes</t>
+  </si>
+  <si>
+    <t>A towering pile of VHS tapes and DVDs. All soap operas. 'General Hospital', 'The Young and the Restless', 'Bold and the Beautiful'... Harry has recorded EVERYTHING. There are tapes going back decades.</t>
+  </si>
+  <si>
+    <t>I flip through some cases. Each one is labeled with neat alien handwriting - episode numbers, air dates, plot summaries. Harry takes his soaps VERY seriously.</t>
+  </si>
+  <si>
+    <t>tapes_vhs</t>
+  </si>
+  <si>
+    <t>What the... is that a MASS EXTINCTION DEVICE?! Just sitting on a shelf, gathering dust like an old trophy?! It's labeled 'PLANET STERILIZER MK-IV' with a little biohazard symbol. It's covered in dust and has a coffee ring on it. Harry used an EXTINCTION DEVICE as a COASTER.</t>
+  </si>
+  <si>
+    <t>I look at the control panel. Big red button labeled 'ACTIVATE'. Safety switch set to 'OFF'. Last calibrated date: 15 years ago. This thing could END ALL LIFE ON EARTH and it's sitting next to empty soda cans. I feel sick.</t>
+  </si>
+  <si>
+    <t>device_extinction</t>
+  </si>
+  <si>
+    <t>Wall Poster</t>
+  </si>
+  <si>
+    <t>A faded poster of what appears to be a human soap opera actor. 'RAFAEL MENDOZA - Dreamiest Eyes 1987'. Harry has drawn little hearts around his face. In green marker.</t>
+  </si>
+  <si>
+    <t>'To Harry, my biggest fan! - Rafael (printed signature)'. This is a mass-produced poster. Rafael didn't actually sign this. Should I tell Harry? ...No. I should not tell Harry.</t>
+  </si>
+  <si>
+    <t>posters_wall</t>
+  </si>
+  <si>
+    <t>Movie Poster</t>
+  </si>
+  <si>
+    <t>A poster for 'INVASION FROM BEYOND' - a cheesy 1950s sci-fi movie. Harry has written notes all over it in alien script, with arrows pointing to various 'inaccuracies'.</t>
+  </si>
+  <si>
+    <t>I can't read alien, but based on the aggressive underlining and exclamation marks, Harry has STRONG opinions about this film's portrayal of extraterrestrial visitors.</t>
+  </si>
+  <si>
+    <t>poster_2</t>
+  </si>
+  <si>
+    <t>Snack Debris</t>
+  </si>
+  <si>
+    <t>Empty chip bags, candy wrappers, crushed soda cans. The floor around the couch is a graveyard of processed snacks. There's also some kind of... purple residue I don't recognize.</t>
+  </si>
+  <si>
+    <t>I pick up a few wrappers. Whoever was here sure likes their snacks.</t>
+  </si>
+  <si>
+    <t>snacks_floor</t>
+  </si>
+  <si>
+    <t>Frank's Window</t>
+  </si>
+  <si>
+    <t>Frank's window. I can see his room from here - the plants, the bed, the warm lamplight. It looks so cozy compared to being out here on this roof.</t>
+  </si>
+  <si>
+    <t>window_frank</t>
+  </si>
+  <si>
+    <t>Satellite Dish</t>
+  </si>
+  <si>
+    <t>This is serious custom equipment. Way beyond consumer grade.</t>
+  </si>
+  <si>
+    <t>I run my hand along the dish's surface. Cold metal, precision engineering. There are markings I don't recognize - coordinates? Frequencies? Whatever this is picking up, it's not your standard satellite TV.</t>
+  </si>
+  <si>
+    <t>satellite_dish</t>
+  </si>
+  <si>
+    <t>The control panel. There's a small screen showing current coordinates, a numeric keypad for input. The screen reads 'CURRENT: 42.3601° N, 71.0589° W - CHANNEL: 847.3 MHz'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The keypad is responsive. I could enter new coordinates if I knew where to point this thing. </t>
+  </si>
+  <si>
+    <t>panel_control</t>
+  </si>
+  <si>
+    <t>Mechanical Gears</t>
+  </si>
+  <si>
+    <t>The satellite's rotation mechanism. Big heavy gears, pistons, servos - all working together to swivel this massive dish around. Currently moving slowly, tracking something in the sky. It's mesmerizing to watch.</t>
+  </si>
+  <si>
+    <t>I watch the gears turn. They're well-oiled, smooth, powerful. If I wanted to STOP this thing from moving... I'd need to jam something in there. Something metal. Like a wrench.</t>
+  </si>
+  <si>
+    <t>gears_satellite</t>
+  </si>
+  <si>
+    <t>Warning Signs</t>
+  </si>
+  <si>
+    <t>'DANGER: HIGH VOLTAGE' and 'CAUTION: MOVING PARTS' and my personal favorite: 'IF YOU CAN READ THIS YOU'RE TOO CLOSE.' Thanks, Hector.</t>
+  </si>
+  <si>
+    <t>'Unauthorized adjustment of interdimensional relay may result in: signal corruption, dimensional bleed-through, or accidental contact with hostile civilizations. -H.M.' That last one is... specific.</t>
+  </si>
+  <si>
+    <t>warning_signs</t>
+  </si>
+  <si>
     <t>Moon</t>
   </si>
   <si>
-    <t>Beautiful full moon tonight. Perfect weather for mad science.</t>
-  </si>
-  <si>
-    <t>Hi moon! ...The moon did not wave back.</t>
-  </si>
-  <si>
-    <t>moon</t>
-  </si>
-  <si>
-    <t>Fence Gate</t>
-  </si>
-  <si>
-    <t>A wooden gate in the fence leading to the neighbor's yard. I can hear music and smell BBQ from the other side.</t>
-  </si>
-  <si>
-    <t>Hello? Is anyone over there?</t>
-  </si>
-  <si>
-    <t>fence_gate_locked</t>
-  </si>
-  <si>
-    <t>flag:clock.earl_invited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The gate to the neighbor's yard. He said I'm welcome any time. </t>
-  </si>
-  <si>
-    <t>fence_gate_unlocked</t>
-  </si>
-  <si>
-    <t>Wall Clock</t>
-  </si>
-  <si>
-    <t>An old clock mounted WAY up on the exterior wall. Why would anyone put a clock there? It's like 15 feet up!</t>
-  </si>
-  <si>
-    <t>I can't reach that. I'd need... I don't know, a ladder? Spring-loaded shoes? A really tall friend?</t>
-  </si>
-  <si>
-    <t>These would be perfect if they weren't broken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These would be perfect if they weren't still broken. </t>
-  </si>
-  <si>
-    <t>{"dialogue":"The ladder helps, but it's not tall enough to reach the clock.","consumeItem":true,"setFlag":"clock.ladder_deployed"}</t>
-  </si>
-  <si>
-    <t>The shoes give me some bounce, but I still can't reach it from down here.</t>
-  </si>
-  <si>
-    <t>I'm not sure throwing a spring at the clock is going to be enough.</t>
-  </si>
-  <si>
-    <t>Definitely not long enough to reach the clock. Plus the clock seems firmly attached to the wall.</t>
-  </si>
-  <si>
-    <t>clock_wall</t>
-  </si>
-  <si>
-    <t>flag:clock.ladder_deployed</t>
-  </si>
-  <si>
-    <t>The ladder I placed here. Still not tall enough to reach the clock.</t>
-  </si>
-  <si>
-    <t>I should leave it here for now. I think I'm onto something.</t>
-  </si>
-  <si>
-    <t>{"dialogue":"I climb the ladder, put on the moon shoes, and JUMP! *CRASH* I grab the clock as I bounce off the wall. Success!","consumeItem":true,"giveItem":"clock","setFlag":"clock.obtained"}</t>
-  </si>
-  <si>
-    <t>Not a bad idea... IF the shoes weren't still broken.</t>
-  </si>
-  <si>
-    <t>I don't think the spring alone is enough to help here.</t>
-  </si>
-  <si>
-    <t>ladder_deployed</t>
-  </si>
-  <si>
-    <t>Nuclear Generator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A large nuclear generator humming with ominous power. The control panel has switches for 'Lab 1' and 'Lab 2'. </t>
-  </si>
-  <si>
-    <t>Lab 1 seems inactive - the fuse looks blown. Lab 2 is still running though.</t>
-  </si>
-  <si>
-    <t>generator_nuclear</t>
-  </si>
-  <si>
-    <t>Stairs to Backyard</t>
-  </si>
-  <si>
-    <t>Wooden stairs leading up to the backyard.</t>
-  </si>
-  <si>
-    <t>bulkhead_stairs</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>A gentle giant with distinctive neck bolts.</t>
-  </si>
-  <si>
-    <t>frank_npc</t>
-  </si>
-  <si>
-    <t>Brain in Jar</t>
-  </si>
-  <si>
-    <t>The jar is labeled 'ABNORMAL'.</t>
-  </si>
-  <si>
-    <t>I probably shouldn't grab someone's brain without asking.</t>
-  </si>
-  <si>
-    <t>brain_jar</t>
-  </si>
-  <si>
-    <t>Specimen Jars</t>
-  </si>
-  <si>
-    <t>Various jars with mysterious contents.</t>
-  </si>
-  <si>
-    <t>Better not. These look like the kind of things that end badly when touched.</t>
-  </si>
-  <si>
-    <t>jars_various</t>
-  </si>
-  <si>
-    <t>Moon shoes! These were banned in six states!</t>
-  </si>
-  <si>
-    <t>I should pick them up first.</t>
-  </si>
-  <si>
-    <t>Cobwebs</t>
-  </si>
-  <si>
-    <t>How long has it been since anyone cleaned down here?</t>
-  </si>
-  <si>
-    <t>If there's a radioactive spider in there, I don't want to know.</t>
-  </si>
-  <si>
-    <t>cobwebs</t>
-  </si>
-  <si>
-    <t>Old Workbench</t>
-  </si>
-  <si>
-    <t>A dusty workbench covered in tools and parts.</t>
-  </si>
-  <si>
-    <t>Tools, bolts, screws, random metal pieces... nothing immediately useful.</t>
-  </si>
-  <si>
-    <t>workbench_old</t>
-  </si>
-  <si>
-    <t>Task Lamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An old task lamp with a dented metal shade. </t>
-  </si>
-  <si>
-    <t>I'd rather leave it on. The basement is dark enough as it is.</t>
-  </si>
-  <si>
-    <t>task_lamp</t>
-  </si>
-  <si>
-    <t>Bare Bulb</t>
-  </si>
-  <si>
-    <t>A single bare lightbulb hanging from the ceiling.</t>
-  </si>
-  <si>
-    <t>lightbulb_bare</t>
-  </si>
-  <si>
-    <t>Stacked Crates</t>
-  </si>
-  <si>
-    <t>Wooden crates stacked high against the wall. They look old and forgotten.</t>
-  </si>
-  <si>
-    <t>Empty. Just dust and disappointment.</t>
-  </si>
-  <si>
-    <t>crates_stacked</t>
-  </si>
-  <si>
-    <t>Frank's Room</t>
-  </si>
-  <si>
-    <t>A bedroom door with a crayon drawing taped to it. 'FRANKS ROOM' is written in wobbly letters. There's a crude picture of... a flower? Or maybe a sun with legs.</t>
-  </si>
-  <si>
-    <t>door_frank</t>
-  </si>
-  <si>
-    <t>Bedroom Door</t>
-  </si>
-  <si>
-    <t>Something's off about this door. There are scorch marks around the frame, and I can see a faint glow from underneath. Sounds like people arguing on the other side.</t>
-  </si>
-  <si>
-    <t>door_alien</t>
-  </si>
-  <si>
-    <t>Stairwell</t>
-  </si>
-  <si>
-    <t>Stairs leading down to the foyer. The banister is polished smooth from decades of use.</t>
-  </si>
-  <si>
-    <t>stairs_down</t>
-  </si>
-  <si>
-    <t>Bathroom</t>
-  </si>
-  <si>
-    <t>A bathroom door. Plain, unassuming.</t>
-  </si>
-  <si>
-    <t>It's locked. I'm not even sure why this door exists.</t>
-  </si>
-  <si>
-    <t>door_bathroom</t>
-  </si>
-  <si>
-    <t>Hector's Room</t>
-  </si>
-  <si>
-    <t>Hector's bedroom door. Looks like a pretty standard door, but knowing this house, who knows what's behind it.</t>
-  </si>
-  <si>
-    <t>door_hector</t>
-  </si>
-  <si>
-    <t>Attic Pull-String</t>
-  </si>
-  <si>
-    <t>A pull-string dangling from a ceiling hatch. I can hear faint sounds from above... scratching? Footsteps? Static? Something's up there.</t>
-  </si>
-  <si>
-    <t>I can't reach it. Must not be implemented yet.</t>
-  </si>
-  <si>
-    <t>pullstring_attic</t>
-  </si>
-  <si>
-    <t>Portrait</t>
-  </si>
-  <si>
-    <t>A woman in Victorian dress. She's holding what appears to be a beaker. Her hair is... suspiciously wild. Science clearly runs in this family.</t>
-  </si>
-  <si>
-    <t>'Henrietta Manzana, 1870-???'. The death date is scratched out. That's... concerning.</t>
-  </si>
-  <si>
-    <t>portrait_1</t>
-  </si>
-  <si>
-    <t>Wait, is he wearing GOGGLES? In the 1800s? Those look exactly like Hector's. This family has a very specific aesthetic.</t>
-  </si>
-  <si>
-    <t>'Herbert Manzana'. No dates. His eyes seem to follow me. I'm choosing to believe that's just good painting technique.</t>
-  </si>
-  <si>
-    <t>portrait_2</t>
-  </si>
-  <si>
-    <t>Unusual Portrait</t>
-  </si>
-  <si>
-    <t>This one's different. The subject has very large eyes, unusually smooth skin, and... are those ANTENNAE painted over with hair? Someone tried to cover them up with brown paint.</t>
-  </si>
-  <si>
-    <t>The nameplate just says 'Cousin'. There's no date. The more I look at this portrait, the less human it appears. I'm going to stop looking at it now.</t>
-  </si>
-  <si>
-    <t>portrait_3</t>
-  </si>
-  <si>
-    <t>Thermostat</t>
-  </si>
-  <si>
-    <t>An old dial thermostat. It's set to... 147 degrees?! No wonder Hector wears that lab coat everywhere. He's acclimated to the surface of the sun.</t>
-  </si>
-  <si>
-    <t>It's stuck. Or maybe welded in place? Someone REALLY likes it hot in here.</t>
-  </si>
-  <si>
-    <t>thermostat</t>
-  </si>
-  <si>
-    <t>Wall Sconce</t>
-  </si>
-  <si>
-    <t>A brass wall sconce with a flickering electric bulb. Very period-appropriate. The glow is warm but dim.</t>
-  </si>
-  <si>
-    <t>The bulb flickers when I touch it but stays on. These things have been burning for who knows how long.</t>
-  </si>
-  <si>
-    <t>sconce_wall</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>A solid wooden door. Leads out to the hallway.</t>
-  </si>
-  <si>
-    <t>door_hallway</t>
-  </si>
-  <si>
-    <t>Stairs Down</t>
-  </si>
-  <si>
-    <t>The stairs leading back down to the side room.</t>
-  </si>
-  <si>
-    <t>exit_stairs</t>
-  </si>
-  <si>
-    <t>Artwork</t>
-  </si>
-  <si>
-    <t>A large painting over the bed. Abstract, lots of blues and greens. Peaceful. Like looking into calm water.</t>
-  </si>
-  <si>
-    <t>It's mounted pretty solidly to the wall. Also, it's not mine.</t>
-  </si>
-  <si>
-    <t>artwork_bed</t>
-  </si>
-  <si>
-    <t>Closet</t>
-  </si>
-  <si>
-    <t>An open closet, mostly empty. A few shirts, nothing fancy. But there's a pair of Hector's goggles hanging on a hook inside. The iconic ones.</t>
-  </si>
-  <si>
-    <t>I should probably leave Hector's personal stuff alone. For now.</t>
-  </si>
-  <si>
-    <t>closet_hector</t>
-  </si>
-  <si>
-    <t>Bathrobe</t>
-  </si>
-  <si>
-    <t>A well-worn bathrobe on a wall hook. The terrycloth kind. This thing has seen some long nights.</t>
-  </si>
-  <si>
-    <t>It's not my bathrobe. That would be weird.</t>
-  </si>
-  <si>
-    <t>robe_hook</t>
-  </si>
-  <si>
-    <t>Bed</t>
-  </si>
-  <si>
-    <t>A solid, comfortable bed with warm wool blankets. Rumpled on one side like someone got up in a hurry. The pillow still has a head-shaped dent.</t>
-  </si>
-  <si>
-    <t>Tempting, but I'm on the clock. Also it's somebody else's bed.</t>
-  </si>
-  <si>
-    <t>bed_hector</t>
-  </si>
-  <si>
-    <t>Nightstand</t>
-  </si>
-  <si>
-    <t>A small nightstand with a warm lamp. There's a book of poetry, a pair of reading glasses, and a framed photo. The essentials.</t>
-  </si>
-  <si>
-    <t>A bookmark about two-thirds through the poetry book. Reading glasses sitting on top, lenses smudged. This is a man's bedtime routine.</t>
-  </si>
-  <si>
-    <t>nightstand_left</t>
-  </si>
-  <si>
-    <t>Framed Photo</t>
-  </si>
-  <si>
-    <t>Hector, a woman, and a big goofy dog. Everyone's smiling. Wherever this was taken, it looks like a really good day.</t>
-  </si>
-  <si>
-    <t>I shouldn't... but the frame's warm from the lamp. Someone looks at this every night.</t>
-  </si>
-  <si>
-    <t>photo_frame</t>
-  </si>
-  <si>
-    <t>Another lamp, and a cup of tea. Stone cold. He got pulled away mid-evening and never came back.</t>
-  </si>
-  <si>
-    <t>The tea has a skin on it. That's been sitting here a while.</t>
-  </si>
-  <si>
-    <t>nightstand_right</t>
-  </si>
-  <si>
-    <t>Dog Bed</t>
-  </si>
-  <si>
-    <t>A dog bed in the corner. Empty. There's still fur on it. Same dog from the photo on the nightstand?</t>
-  </si>
-  <si>
-    <t>Just a well-worn cushion. No dog. No note. Just... gone.</t>
-  </si>
-  <si>
-    <t>dog_bed_empty</t>
-  </si>
-  <si>
-    <t>The door back to the hallway. I can hear the old house settling through it.</t>
-  </si>
-  <si>
-    <t>There's a HUGE satellite dish on the roof outside.</t>
-  </si>
-  <si>
-    <t>window_roof</t>
-  </si>
-  <si>
-    <t>Botanical Drawing</t>
-  </si>
-  <si>
-    <t>A framed botanical illustration. Hand-drawn, detailed. It's a tomato plant at various stages - seedling, flowering, fruiting. Someone spent a lot of time on this.</t>
-  </si>
-  <si>
-    <t>It's not mine to take. But it's really well done.</t>
-  </si>
-  <si>
-    <t>botanical_drawing</t>
-  </si>
-  <si>
-    <t>Lumpy Bed</t>
-  </si>
-  <si>
-    <t>This is a REALLY lumpy bed. I can see the springs practically bursting through.</t>
-  </si>
-  <si>
-    <t>I'm not tired enough to use someone else's bed yet.</t>
-  </si>
-  <si>
-    <t>{"dialogue":"","setFlag":"franks_room.bed_cut"}</t>
-  </si>
-  <si>
-    <t>bed_frank</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>flag:franks_room.bed_cut</t>
-  </si>
-  <si>
-    <t>spring_bed</t>
-  </si>
-  <si>
-    <t>A small wooden nightstand with a reading lamp. There's a well-worn gardening book and a mug with cold tea.</t>
-  </si>
-  <si>
-    <t>The book is 'Companion Planting for the Home Gardener.' Every page has notes in the margins. 'Basil next to tomatoes - yes!' 'Tried this - works!' This person really loves their plants.</t>
-  </si>
-  <si>
-    <t>nightstand_frank</t>
-  </si>
-  <si>
-    <t>Dresser</t>
-  </si>
-  <si>
-    <t>A solid wooden dresser. The top is covered with small potted plants - succulents mostly, all thriving. There's also a collection of seed packets organized by season.</t>
-  </si>
-  <si>
-    <t>Drawers are full of neatly folded clothes. Everything smells like fresh soil and lavender. There's a pair of worn gardening gloves tucked in the corner.</t>
-  </si>
-  <si>
-    <t>dresser_frank</t>
-  </si>
-  <si>
-    <t>Potted Plant</t>
-  </si>
-  <si>
-    <t>A rubber plant in a ceramic pot. Glossy leaves, healthy stem. There's a little hand-written tag stuck in the soil: 'Ruby - doing great!'</t>
-  </si>
-  <si>
-    <t>Ruby is doing great. She doesn't need my help.</t>
-  </si>
-  <si>
-    <t>plant_floor_right</t>
-  </si>
-  <si>
-    <t>Warning Sign</t>
-  </si>
-  <si>
-    <t>A wooden sign staked into the ground. Looks hand-painted.</t>
-  </si>
-  <si>
-    <t>"Beware of Toxic Sludge." Yikes. Noted!</t>
-  </si>
-  <si>
-    <t>sign_toxic</t>
-  </si>
-  <si>
-    <t>Another wooden sign. The paint's a little messier on this one.</t>
-  </si>
-  <si>
-    <t>"Trespassers Will Be Vaporized." I'm here for the job posting, so... I'm not trespassing. Right?</t>
-  </si>
-  <si>
-    <t>sign_vaporize</t>
-  </si>
-  <si>
-    <t>Yet another sign. This guy really likes signs.</t>
-  </si>
-  <si>
-    <t>"No Solicitors (This Means You)." Buddy, I'm not selling anything. Just... applying for a job.</t>
-  </si>
-  <si>
-    <t>sign_solicitors</t>
-  </si>
-  <si>
-    <t>Help Wanted Sign</t>
-  </si>
-  <si>
-    <t>Oh! This one looks newer. And less threatening.</t>
-  </si>
-  <si>
-    <t>"Help Wanted." That's the one! This is definitely the right place.</t>
-  </si>
-  <si>
-    <t>sign_help_wanted</t>
-  </si>
-  <si>
-    <t>Left Window</t>
-  </si>
-  <si>
-    <t>Warm light glowing from inside. I can see a coat rack, some furniture... very cozy!</t>
-  </si>
-  <si>
-    <t>Someone's definitely home. The place looks lived-in and loved.</t>
-  </si>
-  <si>
-    <t>Beautiful oak door with brass fixtures. Classic Victorian craftsmanship. The ad said to come right in...</t>
-  </si>
-  <si>
-    <t>door_front</t>
-  </si>
-  <si>
-    <t>More warm light! I can see a fireplace through this one. Score.</t>
-  </si>
-  <si>
-    <t>This place is everything the ad promised. Cozy scientist's home indeed!</t>
-  </si>
-  <si>
-    <t>Porch Light</t>
-  </si>
-  <si>
-    <t>A simple brass porch light. Keeping the darkness at bay, one bulb at a time.</t>
-  </si>
-  <si>
-    <t>It's doing its job. Better leave it alone.</t>
-  </si>
-  <si>
-    <t>porch_light</t>
-  </si>
-  <si>
-    <t>Alien</t>
-  </si>
-  <si>
-    <t>A tall gray alien with an oversized head and huge, dark eyes. He's standing behind the couch, fixated on the TV. His tiny mouth is set in a neutral line - impossible to read his expression.</t>
-  </si>
-  <si>
-    <t>alien_harry</t>
-  </si>
-  <si>
-    <t>Hallway</t>
-  </si>
-  <si>
-    <t>The doorway back to the second floor hallway. No door - just an opening. Privacy doesn't seem to be a priority here.</t>
-  </si>
-  <si>
-    <t>doorway_exit</t>
-  </si>
-  <si>
-    <t>A medium-sized dresser. The drawers are stuffed with what looks like old newspapers, TV guides, and... is that tinfoil? Lots of tinfoil.</t>
-  </si>
-  <si>
-    <t>I pull open a drawer. More TV guides, organized by date going back YEARS. This is dedication.</t>
-  </si>
-  <si>
-    <t>dresser_alien</t>
-  </si>
-  <si>
-    <t>Lava Lamp</t>
-  </si>
-  <si>
-    <t>A lava lamp with pinkish-purple blobs slowly rising and falling. The glow is hypnotic. Very... groovy? Is that the word?</t>
-  </si>
-  <si>
-    <t>Warm to the touch. The blobs inside seem to move faster when I'm near it. Probably just a coincidence. Probably.</t>
-  </si>
-  <si>
-    <t>{"dialogue":"I hold the candle up to the lava lamp. They glow in harmony for a moment. Very zen.","giveItem":"spring"}</t>
-  </si>
-  <si>
-    <t>lamp_lava</t>
-  </si>
-  <si>
-    <t>Couch</t>
-  </si>
-  <si>
-    <t>A beat-up old couch, clearly the alien's throne. The cushions are molded to a very specific shape - one that's definitely not human. Surrounded by snack debris.</t>
-  </si>
-  <si>
-    <t>I'd have to get past Harry to sit there. And he's standing RIGHT behind it, staring at the TV. It's... unsettling.</t>
-  </si>
-  <si>
-    <t>couch_alien</t>
-  </si>
-  <si>
-    <t>Coffee Table</t>
-  </si>
-  <si>
-    <t>A coffee table buried under clutter: a TV remote, half-eaten snacks, soda cans, and a well-worn TV Guide.</t>
-  </si>
-  <si>
-    <t>I search through the mess. Just snack wrappers and old magazines. Nothing useful.</t>
-  </si>
-  <si>
-    <t>table_coffee</t>
-  </si>
-  <si>
-    <t>Television</t>
-  </si>
-  <si>
-    <t>A chunky CRT television, currently displaying 'Days of Our Parallel Dimensions' - apparently Harry's favorite soap. The screen casts a blue-white glow over the entire room. Hector needs this for the experiment...</t>
-  </si>
-  <si>
-    <t>I reach for the TV and Harry LEAPS off the couch. 'WHAT ARE YOU DOING?! Miranda is about to find out that Rafael is actually her clone from dimension 7!' He's not letting me anywhere near that TV while he's in here.</t>
-  </si>
-  <si>
-    <t>tv_soap</t>
-  </si>
-  <si>
-    <t>Video Tapes</t>
-  </si>
-  <si>
-    <t>A towering pile of VHS tapes and DVDs. All soap operas. 'General Hospital', 'The Young and the Restless', 'Bold and the Beautiful'... Harry has recorded EVERYTHING. There are tapes going back decades.</t>
-  </si>
-  <si>
-    <t>I flip through some cases. Each one is labeled with neat alien handwriting - episode numbers, air dates, plot summaries. Harry takes his soaps VERY seriously.</t>
-  </si>
-  <si>
-    <t>tapes_vhs</t>
-  </si>
-  <si>
-    <t>What the... is that a MASS EXTINCTION DEVICE?! Just sitting on a shelf, gathering dust like an old trophy?! It's labeled 'PLANET STERILIZER MK-IV' with a little biohazard symbol. It's covered in dust and has a coffee ring on it. Harry used an EXTINCTION DEVICE as a COASTER.</t>
-  </si>
-  <si>
-    <t>I look at the control panel. Big red button labeled 'ACTIVATE'. Safety switch set to 'OFF'. Last calibrated date: 15 years ago. This thing could END ALL LIFE ON EARTH and it's sitting next to empty soda cans. I feel sick.</t>
-  </si>
-  <si>
-    <t>device_extinction</t>
-  </si>
-  <si>
-    <t>Wall Poster</t>
-  </si>
-  <si>
-    <t>A faded poster of what appears to be a human soap opera actor. 'RAFAEL MENDOZA - Dreamiest Eyes 1987'. Harry has drawn little hearts around his face. In green marker.</t>
-  </si>
-  <si>
-    <t>'To Harry, my biggest fan! - Rafael (printed signature)'. This is a mass-produced poster. Rafael didn't actually sign this. Should I tell Harry? ...No. I should not tell Harry.</t>
-  </si>
-  <si>
-    <t>posters_wall</t>
-  </si>
-  <si>
-    <t>Movie Poster</t>
-  </si>
-  <si>
-    <t>A poster for 'INVASION FROM BEYOND' - a cheesy 1950s sci-fi movie. Harry has written notes all over it in alien script, with arrows pointing to various 'inaccuracies'.</t>
-  </si>
-  <si>
-    <t>I can't read alien, but based on the aggressive underlining and exclamation marks, Harry has STRONG opinions about this film's portrayal of extraterrestrial visitors.</t>
-  </si>
-  <si>
-    <t>poster_2</t>
-  </si>
-  <si>
-    <t>Snack Debris</t>
-  </si>
-  <si>
-    <t>Empty chip bags, candy wrappers, crushed soda cans. The floor around the couch is a graveyard of processed snacks. There's also some kind of... purple residue I don't recognize.</t>
-  </si>
-  <si>
-    <t>I pick up a few wrappers. Whoever was here sure likes their snacks.</t>
-  </si>
-  <si>
-    <t>snacks_floor</t>
-  </si>
-  <si>
-    <t>Frank's Window</t>
-  </si>
-  <si>
-    <t>Frank's window. I can see his room from here - the plants, the bed, the warm lamplight. It looks so cozy compared to being out here on this roof.</t>
-  </si>
-  <si>
-    <t>window_frank</t>
-  </si>
-  <si>
-    <t>Satellite Dish</t>
-  </si>
-  <si>
-    <t>This is serious custom equipment. Way beyond consumer grade.</t>
-  </si>
-  <si>
-    <t>I run my hand along the dish's surface. Cold metal, precision engineering. There are markings I don't recognize - coordinates? Frequencies? Whatever this is picking up, it's not your standard satellite TV.</t>
-  </si>
-  <si>
-    <t>satellite_dish</t>
-  </si>
-  <si>
-    <t>The control panel. There's a small screen showing current coordinates, a numeric keypad for input. The screen reads 'CURRENT: 42.3601° N, 71.0589° W - CHANNEL: 847.3 MHz'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The keypad is responsive. I could enter new coordinates if I knew where to point this thing. </t>
-  </si>
-  <si>
-    <t>panel_control</t>
-  </si>
-  <si>
-    <t>Mechanical Gears</t>
-  </si>
-  <si>
-    <t>The satellite's rotation mechanism. Big heavy gears, pistons, servos - all working together to swivel this massive dish around. Currently moving slowly, tracking something in the sky. It's mesmerizing to watch.</t>
-  </si>
-  <si>
-    <t>I watch the gears turn. They're well-oiled, smooth, powerful. If I wanted to STOP this thing from moving... I'd need to jam something in there. Something metal. Like a wrench.</t>
-  </si>
-  <si>
-    <t>gears_satellite</t>
-  </si>
-  <si>
-    <t>Warning Signs</t>
-  </si>
-  <si>
-    <t>'DANGER: HIGH VOLTAGE' and 'CAUTION: MOVING PARTS' and my personal favorite: 'IF YOU CAN READ THIS YOU'RE TOO CLOSE.' Thanks, Hector.</t>
-  </si>
-  <si>
-    <t>'Unauthorized adjustment of interdimensional relay may result in: signal corruption, dimensional bleed-through, or accidental contact with hostile civilizations. -H.M.' That last one is... specific.</t>
-  </si>
-  <si>
-    <t>warning_signs</t>
-  </si>
-  <si>
     <t>The moon is HUGE tonight. Almost full, bright enough to read by. It's beautiful up here. The whole roof is bathed in silver light.</t>
   </si>
   <si>
@@ -2058,18 +1902,6 @@
     <t>lasers_security</t>
   </si>
   <si>
-    <t>AUX SEC Hatch</t>
-  </si>
-  <si>
-    <t>A small panel labeled 'AUX SEC' - looks like some kind of charging station or deployment hatch. Military-grade, very utilitarian.</t>
-  </si>
-  <si>
-    <t>It's locked shut. There's a slot that looks like it could fit a padlock...</t>
-  </si>
-  <si>
-    <t>hatch_robot</t>
-  </si>
-  <si>
     <t>Equipment Cabinet</t>
   </si>
   <si>
@@ -2077,9 +1909,6 @@
   </si>
   <si>
     <t>It's locked. The door rattles but won't budge.</t>
-  </si>
-  <si>
-    <t>A red fire extinguisher mounted on the wall. Required by law. Probably hasn't been inspected in years.</t>
   </si>
 </sst>
 </file>
@@ -2840,16 +2669,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1</v>
@@ -2894,18 +2723,18 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>1</v>
@@ -2953,18 +2782,18 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>1</v>
@@ -3012,21 +2841,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -3071,21 +2900,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -3130,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -3141,7 +2970,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>1</v>
@@ -3180,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>1</v>
@@ -3194,16 +3023,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1</v>
@@ -3248,21 +3077,21 @@
         <v>1</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>1</v>
@@ -3307,21 +3136,21 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>1</v>
@@ -3366,21 +3195,21 @@
         <v>1</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>1</v>
@@ -3425,21 +3254,21 @@
         <v>1</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>1</v>
@@ -3484,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3498,7 +3327,7 @@
   <sheetPr>
     <tabColor rgb="FF2B5797"/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3575,13 +3404,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>1</v>
@@ -3629,21 +3458,21 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1</v>
@@ -3688,18 +3517,18 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>1</v>
@@ -3747,21 +3576,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -3806,21 +3635,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -3865,21 +3694,21 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1</v>
@@ -3924,21 +3753,21 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1</v>
@@ -3983,21 +3812,21 @@
         <v>1</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>1</v>
@@ -4042,21 +3871,21 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>1</v>
@@ -4101,125 +3930,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -4310,13 +4021,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>1</v>
@@ -4364,18 +4075,18 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>509</v>
+        <v>460</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>1</v>
@@ -4423,21 +4134,21 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -4482,21 +4193,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>515</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>518</v>
+        <v>469</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -4541,21 +4252,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>519</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -4600,21 +4311,21 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1</v>
@@ -4659,21 +4370,21 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1</v>
@@ -4718,21 +4429,21 @@
         <v>1</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>1</v>
@@ -4777,21 +4488,21 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>1</v>
@@ -4836,21 +4547,21 @@
         <v>1</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>1</v>
@@ -4895,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4909,7 +4620,7 @@
   <sheetPr>
     <tabColor rgb="FF2B5797"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4986,13 +4697,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>1</v>
@@ -5040,21 +4751,21 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>134</v>
+        <v>495</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>544</v>
+        <v>496</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>200</v>
+        <v>497</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1</v>
@@ -5099,21 +4810,21 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>545</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>546</v>
+        <v>499</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -5146,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>1</v>
@@ -5158,21 +4869,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>549</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>550</v>
+        <v>249</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -5205,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>553</v>
+        <v>1</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>1</v>
@@ -5217,21 +4928,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>554</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>555</v>
+        <v>508</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>556</v>
+        <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1</v>
+        <v>509</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>1</v>
+        <v>510</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -5276,21 +4987,21 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1</v>
@@ -5335,125 +5046,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>568</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5544,16 +5137,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>569</v>
+        <v>516</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>571</v>
+        <v>518</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1</v>
@@ -5598,21 +5191,21 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>569</v>
+        <v>516</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>573</v>
+        <v>520</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>574</v>
+        <v>521</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1</v>
@@ -5657,21 +5250,21 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>575</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>569</v>
+        <v>516</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>576</v>
+        <v>523</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>577</v>
+        <v>524</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -5716,21 +5309,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>578</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>579</v>
+        <v>526</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -5775,21 +5368,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>582</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>583</v>
+        <v>530</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>584</v>
+        <v>531</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>585</v>
+        <v>532</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -5845,7 +5438,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>586</v>
+        <v>533</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>1</v>
@@ -5893,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>587</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -5904,10 +5497,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>588</v>
+        <v>535</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>589</v>
+        <v>536</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1</v>
@@ -5957,16 +5550,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>591</v>
+        <v>538</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>1</v>
@@ -6011,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>593</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -6102,13 +5695,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>594</v>
+        <v>541</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>595</v>
+        <v>542</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>1</v>
@@ -6156,21 +5749,21 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>596</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>597</v>
+        <v>508</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>598</v>
+        <v>544</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>1</v>
+        <v>545</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1</v>
@@ -6215,21 +5808,21 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>599</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>600</v>
+        <v>548</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>601</v>
+        <v>549</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -6238,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1</v>
+        <v>550</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>1</v>
@@ -6274,21 +5867,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>602</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>603</v>
+        <v>552</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>604</v>
+        <v>553</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>605</v>
+        <v>554</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -6297,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>606</v>
+        <v>1</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>1</v>
@@ -6333,21 +5926,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>607</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>610</v>
+        <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -6392,21 +5985,21 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>611</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>612</v>
+        <v>559</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>613</v>
+        <v>560</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>614</v>
+        <v>561</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1</v>
@@ -6451,21 +6044,21 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>615</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>616</v>
+        <v>563</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>617</v>
+        <v>564</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1</v>
@@ -6510,21 +6103,21 @@
         <v>1</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>619</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>620</v>
+        <v>567</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>621</v>
+        <v>568</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>622</v>
+        <v>569</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>1</v>
@@ -6569,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>623</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -6580,10 +6173,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>624</v>
+        <v>571</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>625</v>
+        <v>572</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>1</v>
@@ -6628,21 +6221,21 @@
         <v>1</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>626</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>627</v>
+        <v>574</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>628</v>
+        <v>575</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>629</v>
+        <v>576</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>1</v>
@@ -6687,21 +6280,21 @@
         <v>1</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>630</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>631</v>
+        <v>578</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>632</v>
+        <v>579</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>633</v>
+        <v>580</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>1</v>
@@ -6746,21 +6339,21 @@
         <v>1</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>634</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>635</v>
+        <v>582</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>636</v>
+        <v>583</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>637</v>
+        <v>584</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>1</v>
@@ -6805,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>638</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -6896,13 +6489,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>639</v>
+        <v>586</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>640</v>
+        <v>587</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>1</v>
@@ -6950,21 +6543,21 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>641</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>642</v>
+        <v>589</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>643</v>
+        <v>590</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>644</v>
+        <v>591</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1</v>
@@ -7009,21 +6602,21 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>645</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>646</v>
+        <v>593</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>647</v>
+        <v>594</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -7068,21 +6661,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>648</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>649</v>
+        <v>596</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>650</v>
+        <v>597</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>651</v>
+        <v>598</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -7127,21 +6720,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>653</v>
+        <v>600</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>654</v>
+        <v>601</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>655</v>
+        <v>602</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -7186,21 +6779,21 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>656</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>400</v>
+        <v>604</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>658</v>
+        <v>606</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1</v>
@@ -7245,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>659</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -7259,7 +6852,7 @@
   <sheetPr>
     <tabColor rgb="FF2B5797"/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -7336,16 +6929,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>660</v>
+        <v>608</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1</v>
@@ -7390,21 +6983,21 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1</v>
@@ -7449,21 +7042,21 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>667</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>668</v>
+        <v>616</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>669</v>
+        <v>617</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -7508,21 +7101,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>671</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>674</v>
+        <v>622</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -7567,21 +7160,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>675</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>676</v>
+        <v>624</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -7626,125 +7219,7 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -10876,7 +10351,7 @@
   <sheetPr>
     <tabColor rgb="FF2B5797"/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -10962,7 +10437,7 @@
         <v>189</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1</v>
@@ -11007,21 +10482,21 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1</v>
@@ -11080,7 +10555,7 @@
         <v>196</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -11125,21 +10600,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -11184,21 +10659,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -11243,21 +10718,21 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1</v>
@@ -11302,21 +10777,21 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1</v>
@@ -11361,21 +10836,21 @@
         <v>1</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>1</v>
@@ -11420,21 +10895,21 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>1</v>
@@ -11479,21 +10954,21 @@
         <v>1</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>1</v>
@@ -11538,21 +11013,21 @@
         <v>1</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>1</v>
@@ -11597,21 +11072,21 @@
         <v>1</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>1</v>
@@ -11656,21 +11131,21 @@
         <v>1</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>1</v>
@@ -11779,17 +11254,17 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="C16" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>244</v>
-      </c>
       <c r="E16" s="12" t="s">
         <v>1</v>
       </c>
@@ -11833,21 +11308,21 @@
         <v>1</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>1</v>
@@ -11892,21 +11367,21 @@
         <v>1</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>1</v>
@@ -11951,21 +11426,21 @@
         <v>1</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>1</v>
@@ -12010,22 +11485,22 @@
         <v>1</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>259</v>
-      </c>
       <c r="E20" s="12" t="s">
         <v>1</v>
       </c>
@@ -12036,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>1</v>
@@ -12074,16 +11549,16 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>1</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>1</v>
@@ -12129,124 +11604,6 @@
       </c>
       <c r="S21" s="13" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -12260,7 +11617,7 @@
   <sheetPr>
     <tabColor rgb="FF2B5797"/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -12337,16 +11694,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1</v>
@@ -12370,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>1</v>
@@ -12391,21 +11748,21 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1</v>
@@ -12429,10 +11786,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>1</v>
+        <v>271</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>1</v>
+        <v>272</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>1</v>
@@ -12450,21 +11807,21 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -12488,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>1</v>
@@ -12509,21 +11866,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -12547,10 +11904,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>287</v>
+        <v>1</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>1</v>
@@ -12568,21 +11925,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -12600,13 +11957,13 @@
         <v>1</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>1</v>
@@ -12627,21 +11984,21 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1</v>
@@ -12665,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>1</v>
@@ -12686,21 +12043,21 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1</v>
@@ -12718,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>1</v>
+        <v>293</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>1</v>
@@ -12742,83 +12099,83 @@
         <v>1</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>1</v>
@@ -12863,302 +12220,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S12" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S14" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -13249,16 +12311,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1</v>
@@ -13303,21 +12365,21 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>1</v>
@@ -13362,18 +12424,18 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>1</v>
@@ -13421,21 +12483,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -13480,21 +12542,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -13539,21 +12601,21 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1</v>
@@ -13598,21 +12660,21 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1</v>
@@ -13657,7 +12719,7 @@
         <v>1</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -13671,7 +12733,7 @@
   <sheetPr>
     <tabColor rgb="FF2B5797"/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -13754,10 +12816,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>1</v>
@@ -13802,18 +12864,18 @@
         <v>1</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>1</v>
@@ -13861,21 +12923,21 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1</v>
+        <v>338</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>1</v>
@@ -13920,21 +12982,21 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>1</v>
@@ -13979,21 +13041,21 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>1</v>
@@ -14038,21 +13100,21 @@
         <v>1</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1</v>
@@ -14097,21 +13159,21 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>381</v>
+        <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>1</v>
@@ -14156,21 +13218,21 @@
         <v>1</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>1</v>
@@ -14215,21 +13277,21 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>1</v>
@@ -14274,21 +13336,21 @@
         <v>1</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>1</v>
@@ -14333,21 +13395,21 @@
         <v>1</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>8</v>
+        <v>367</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>1</v>
@@ -14392,27 +13454,27 @@
         <v>1</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>299</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>1</v>
@@ -14421,13 +13483,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>1</v>
+        <v>374</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>1</v>
+        <v>375</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>1</v>
@@ -14436,42 +13498,42 @@
         <v>1</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>1</v>
+        <v>376</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>1</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>1</v>
+        <v>377</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>400</v>
+        <v>83</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>8</v>
+        <v>380</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1</v>
+        <v>383</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>1</v>
@@ -14480,7 +13542,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>1</v>
+        <v>384</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>1</v>
@@ -14495,258 +13557,22 @@
         <v>1</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>1</v>
+        <v>383</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>1</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>1</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>1</v>
+        <v>385</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>1</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
